--- a/platform/service-boss/src/main/resources/download/book.xlsx
+++ b/platform/service-boss/src/main/resources/download/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghi\IdeaProjects\mall-shop\platform\service-boss\src\main\resources\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB1DCBE-9E3B-46E1-903E-55D8955362B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A49440-4833-4317-9125-247B356724DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,10 +360,13 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
